--- a/biology/Médecine/Hyperglycémie/Hyperglycémie.xlsx
+++ b/biology/Médecine/Hyperglycémie/Hyperglycémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperglyc%C3%A9mie</t>
+          <t>Hyperglycémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une hyperglycémie est une concentration en glucose dans le sang (glycémie) anormalement élevée. Pour un être humain, ceci correspond à une glycémie supérieure à 1,26 g/L (7,0 mmol/l) à jeun, et à 2,00 g/L (11,1 mmol/l) le reste du temps[1]. Celle-ci est un des symptômes révélateurs d'un diabète. Le contraire d'une hyperglycémie est une hypoglycémie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une hyperglycémie est une concentration en glucose dans le sang (glycémie) anormalement élevée. Pour un être humain, ceci correspond à une glycémie supérieure à 1,26 g/L (7,0 mmol/l) à jeun, et à 2,00 g/L (11,1 mmol/l) le reste du temps. Celle-ci est un des symptômes révélateurs d'un diabète. Le contraire d'une hyperglycémie est une hypoglycémie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperglyc%C3%A9mie</t>
+          <t>Hyperglycémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fatigue et somnolence
 Irritabilité
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperglyc%C3%A9mie</t>
+          <t>Hyperglycémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperglycémie n'a pas de conséquence grave à court terme. L'hyperglycémie chronique définit le diabète, et entraîne une détérioration des vaisseaux sanguins et des nerfs, et donne lieu à des complications :
 insuffisance rénale
